--- a/策划案/镇魂街/测试-运营相关.xlsx
+++ b/策划案/镇魂街/测试-运营相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -5476,21 +5476,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5536,10 +5521,37 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5548,7 +5560,7 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5560,22 +5572,10 @@
     <xf numFmtId="0" fontId="18" fillId="19" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="4" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="4" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
@@ -5665,6 +5665,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6219825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="1885950"/>
+          <a:ext cx="9896475" cy="7115175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6031,12 +6080,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -6045,10 +6094,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6059,26 +6108,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6087,10 +6136,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -6099,147 +6148,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6252,16 +6305,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6289,8 +6338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7573,6 +7622,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7667,7 +7717,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>268</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -7703,7 +7753,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="60"/>
       <c r="C6" s="27" t="s">
         <v>207</v>
@@ -7735,7 +7785,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="60"/>
       <c r="C7" s="27" t="s">
         <v>208</v>
@@ -7767,7 +7817,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="60"/>
       <c r="C8" s="27" t="s">
         <v>209</v>
@@ -7803,7 +7853,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="60"/>
       <c r="C9" s="27" t="s">
         <v>210</v>
@@ -7839,8 +7889,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="67" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -7864,8 +7914,8 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="27" t="s">
         <v>227</v>
       </c>
@@ -7891,8 +7941,8 @@
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="27" t="s">
         <v>228</v>
       </c>
@@ -7914,8 +7964,8 @@
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
         <v>229</v>
       </c>
@@ -7941,8 +7991,8 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="27" t="s">
         <v>230</v>
       </c>
@@ -7964,8 +8014,8 @@
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="27" t="s">
         <v>231</v>
       </c>
@@ -7991,8 +8041,8 @@
       <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="27" t="s">
         <v>232</v>
       </c>
@@ -8014,8 +8064,8 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="27" t="s">
         <v>233</v>
       </c>
@@ -8041,8 +8091,8 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="27" t="s">
         <v>234</v>
       </c>
@@ -8064,8 +8114,8 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="27" t="s">
         <v>235</v>
       </c>
@@ -8091,8 +8141,8 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="27" t="s">
         <v>236</v>
       </c>
@@ -8114,8 +8164,8 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="27" t="s">
         <v>237</v>
       </c>
@@ -8141,8 +8191,8 @@
       <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="27" t="s">
         <v>238</v>
       </c>
@@ -8168,8 +8218,8 @@
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="27" t="s">
         <v>239</v>
       </c>
@@ -8195,8 +8245,8 @@
       <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="27" t="s">
         <v>240</v>
       </c>
@@ -8222,7 +8272,7 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="60" t="s">
         <v>261</v>
       </c>
@@ -8247,7 +8297,7 @@
       <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="60"/>
       <c r="C26" s="27" t="s">
         <v>247</v>
@@ -8270,7 +8320,7 @@
       <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="60"/>
       <c r="C27" s="27" t="s">
         <v>248</v>
@@ -8293,7 +8343,7 @@
       <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="60"/>
       <c r="C28" s="27" t="s">
         <v>249</v>
@@ -8320,7 +8370,7 @@
       <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="60"/>
       <c r="C29" s="27" t="s">
         <v>250</v>
@@ -8347,7 +8397,7 @@
       <c r="K29" s="27"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="60"/>
       <c r="C30" s="27" t="s">
         <v>251</v>
@@ -8374,7 +8424,7 @@
       <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="60"/>
       <c r="C31" s="27" t="s">
         <v>252</v>
@@ -8401,7 +8451,7 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="60"/>
       <c r="C32" s="27" t="s">
         <v>253</v>
@@ -8428,7 +8478,7 @@
       <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="60"/>
       <c r="C33" s="27" t="s">
         <v>254</v>
@@ -8455,7 +8505,7 @@
       <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="60"/>
       <c r="C34" s="27" t="s">
         <v>255</v>
@@ -8482,7 +8532,7 @@
       <c r="K34" s="27"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="60"/>
       <c r="C35" s="27" t="s">
         <v>256</v>
@@ -8509,7 +8559,7 @@
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="60"/>
       <c r="C36" s="27" t="s">
         <v>257</v>
@@ -8536,7 +8586,7 @@
       <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="60" t="s">
         <v>267</v>
       </c>
@@ -8557,7 +8607,7 @@
       <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="60"/>
       <c r="C38" s="27" t="s">
         <v>264</v>
@@ -8576,7 +8626,7 @@
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="61" t="s">
         <v>326</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -8603,7 +8653,7 @@
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
         <v>270</v>
@@ -8626,7 +8676,7 @@
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="60"/>
       <c r="C41" s="27" t="s">
         <v>271</v>
@@ -8649,7 +8699,7 @@
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="60" t="s">
         <v>301</v>
       </c>
@@ -8670,7 +8720,7 @@
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="60"/>
       <c r="C43" s="30" t="s">
         <v>276</v>
@@ -8689,7 +8739,7 @@
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="60"/>
       <c r="C44" s="30" t="s">
         <v>277</v>
@@ -8712,7 +8762,7 @@
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="60"/>
       <c r="C45" s="30" t="s">
         <v>278</v>
@@ -8731,7 +8781,7 @@
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="60"/>
       <c r="C46" s="30" t="s">
         <v>279</v>
@@ -8750,7 +8800,7 @@
       <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="60"/>
       <c r="C47" s="30" t="s">
         <v>280</v>
@@ -8773,7 +8823,7 @@
       <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="60"/>
       <c r="C48" s="30" t="s">
         <v>281</v>
@@ -8792,7 +8842,7 @@
       <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="60"/>
       <c r="C49" s="30" t="s">
         <v>282</v>
@@ -8815,7 +8865,7 @@
       <c r="K49" s="27"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="60"/>
       <c r="C50" s="30" t="s">
         <v>283</v>
@@ -8834,7 +8884,7 @@
       <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="60"/>
       <c r="C51" s="30" t="s">
         <v>284</v>
@@ -8853,7 +8903,7 @@
       <c r="K51" s="27"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="60"/>
       <c r="C52" s="30" t="s">
         <v>285</v>
@@ -8876,7 +8926,7 @@
       <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="60"/>
       <c r="C53" s="30" t="s">
         <v>286</v>
@@ -8895,7 +8945,7 @@
       <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="60"/>
       <c r="C54" s="30" t="s">
         <v>287</v>
@@ -8914,7 +8964,7 @@
       <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="60"/>
       <c r="C55" s="30" t="s">
         <v>288</v>
@@ -8937,7 +8987,7 @@
       <c r="K55" s="27"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="60"/>
       <c r="C56" s="30" t="s">
         <v>289</v>
@@ -8956,7 +9006,7 @@
       <c r="K56" s="27"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="60"/>
       <c r="C57" s="30" t="s">
         <v>290</v>
@@ -8979,7 +9029,7 @@
       <c r="K57" s="27"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="60"/>
       <c r="C58" s="30" t="s">
         <v>291</v>
@@ -8998,7 +9048,7 @@
       <c r="K58" s="27"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="60"/>
       <c r="C59" s="30" t="s">
         <v>292</v>
@@ -9017,7 +9067,7 @@
       <c r="K59" s="27"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="60"/>
       <c r="C60" s="30" t="s">
         <v>293</v>
@@ -9036,7 +9086,7 @@
       <c r="K60" s="27"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="60"/>
       <c r="C61" s="30" t="s">
         <v>294</v>
@@ -9055,7 +9105,7 @@
       <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="60" t="s">
         <v>316</v>
       </c>
@@ -9080,7 +9130,7 @@
       <c r="K62" s="27"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="60"/>
       <c r="C63" s="27" t="s">
         <v>303</v>
@@ -9103,7 +9153,7 @@
       <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="60"/>
       <c r="C64" s="27" t="s">
         <v>304</v>
@@ -9130,7 +9180,7 @@
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="60"/>
       <c r="C65" s="27" t="s">
         <v>305</v>
@@ -9157,7 +9207,7 @@
       <c r="K65" s="27"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="60"/>
       <c r="C66" s="27" t="s">
         <v>306</v>
@@ -9180,7 +9230,7 @@
       <c r="K66" s="27"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="60"/>
       <c r="C67" s="27" t="s">
         <v>307</v>
@@ -9203,7 +9253,7 @@
       <c r="K67" s="27"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="60"/>
       <c r="C68" s="27" t="s">
         <v>308</v>
@@ -9226,7 +9276,7 @@
       <c r="K68" s="27"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="60"/>
       <c r="C69" s="27" t="s">
         <v>309</v>
@@ -9249,7 +9299,7 @@
       <c r="K69" s="27"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="60"/>
       <c r="C70" s="27" t="s">
         <v>310</v>
@@ -9276,7 +9326,7 @@
       <c r="K70" s="27"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="60"/>
       <c r="C71" s="27" t="s">
         <v>311</v>
@@ -9303,7 +9353,7 @@
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="60"/>
       <c r="C72" s="27" t="s">
         <v>312</v>
@@ -9330,7 +9380,7 @@
       <c r="K72" s="27"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="60"/>
       <c r="C73" s="27" t="s">
         <v>313</v>
@@ -9357,7 +9407,7 @@
       <c r="K73" s="27"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="60"/>
       <c r="C74" s="27" t="s">
         <v>314</v>
@@ -9384,7 +9434,7 @@
       <c r="K74" s="27"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="60" t="s">
         <v>325</v>
       </c>
@@ -9409,7 +9459,7 @@
       <c r="K75" s="27"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="60"/>
       <c r="C76" s="27" t="s">
         <v>322</v>
@@ -9428,7 +9478,7 @@
       <c r="K76" s="27"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="71" t="s">
         <v>367</v>
       </c>
       <c r="B77" s="60" t="s">
@@ -9455,7 +9505,7 @@
       <c r="K77" s="27"/>
     </row>
     <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="70"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="60"/>
       <c r="C78" s="27" t="s">
         <v>327</v>
@@ -9478,7 +9528,7 @@
       <c r="K78" s="27"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="70"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="60"/>
       <c r="C79" s="27" t="s">
         <v>328</v>
@@ -9501,7 +9551,7 @@
       <c r="K79" s="27"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="70"/>
+      <c r="A80" s="71"/>
       <c r="B80" s="60" t="s">
         <v>349</v>
       </c>
@@ -9526,7 +9576,7 @@
       <c r="K80" s="27"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="70"/>
+      <c r="A81" s="71"/>
       <c r="B81" s="60"/>
       <c r="C81" s="27" t="s">
         <v>330</v>
@@ -9553,7 +9603,7 @@
       <c r="K81" s="27"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="70"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="60"/>
       <c r="C82" s="27" t="s">
         <v>331</v>
@@ -9580,7 +9630,7 @@
       <c r="K82" s="27"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="70"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="60"/>
       <c r="C83" s="27" t="s">
         <v>332</v>
@@ -9607,7 +9657,7 @@
       <c r="K83" s="27"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="70"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="60"/>
       <c r="C84" s="27" t="s">
         <v>333</v>
@@ -9630,7 +9680,7 @@
       <c r="K84" s="27"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="70"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="60"/>
       <c r="C85" s="27" t="s">
         <v>334</v>
@@ -9653,7 +9703,7 @@
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="70"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="60"/>
       <c r="C86" s="27" t="s">
         <v>335</v>
@@ -9676,7 +9726,7 @@
       <c r="K86" s="27"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="70"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="60"/>
       <c r="C87" s="27" t="s">
         <v>336</v>
@@ -9699,7 +9749,7 @@
       <c r="K87" s="27"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="70"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="60"/>
       <c r="C88" s="27" t="s">
         <v>337</v>
@@ -9722,7 +9772,7 @@
       <c r="K88" s="27"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="70"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="60"/>
       <c r="C89" s="27" t="s">
         <v>338</v>
@@ -9745,7 +9795,7 @@
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="70"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="60"/>
       <c r="C90" s="27" t="s">
         <v>339</v>
@@ -9776,7 +9826,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="70"/>
+      <c r="A91" s="71"/>
       <c r="B91" s="60"/>
       <c r="C91" s="27" t="s">
         <v>340</v>
@@ -9807,7 +9857,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="70"/>
+      <c r="A92" s="71"/>
       <c r="B92" s="60"/>
       <c r="C92" s="27" t="s">
         <v>341</v>
@@ -9838,7 +9888,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="70"/>
+      <c r="A93" s="71"/>
       <c r="B93" s="60"/>
       <c r="C93" s="27" t="s">
         <v>342</v>
@@ -9869,7 +9919,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="70"/>
+      <c r="A94" s="71"/>
       <c r="B94" s="60"/>
       <c r="C94" s="27" t="s">
         <v>343</v>
@@ -9900,7 +9950,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="70"/>
+      <c r="A95" s="71"/>
       <c r="B95" s="60"/>
       <c r="C95" s="27" t="s">
         <v>344</v>
@@ -9931,7 +9981,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="70"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="60"/>
       <c r="C96" s="27" t="s">
         <v>345</v>
@@ -9962,7 +10012,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="70"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="60" t="s">
         <v>364</v>
       </c>
@@ -9995,7 +10045,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="70"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="60"/>
       <c r="C98" s="27" t="s">
         <v>351</v>
@@ -10026,7 +10076,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="70"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="60"/>
       <c r="C99" s="27" t="s">
         <v>352</v>
@@ -10057,7 +10107,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="70"/>
+      <c r="A100" s="71"/>
       <c r="B100" s="60"/>
       <c r="C100" s="27" t="s">
         <v>353</v>
@@ -10088,7 +10138,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="70"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="60"/>
       <c r="C101" s="27" t="s">
         <v>354</v>
@@ -10119,7 +10169,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="70"/>
+      <c r="A102" s="71"/>
       <c r="B102" s="60"/>
       <c r="C102" s="27" t="s">
         <v>355</v>
@@ -10150,7 +10200,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="70"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="60"/>
       <c r="C103" s="27" t="s">
         <v>356</v>
@@ -10181,7 +10231,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="70"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="60"/>
       <c r="C104" s="27" t="s">
         <v>357</v>
@@ -10212,7 +10262,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="70"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="60"/>
       <c r="C105" s="27" t="s">
         <v>358</v>
@@ -10243,7 +10293,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="70"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="60"/>
       <c r="C106" s="27" t="s">
         <v>359</v>
@@ -10274,7 +10324,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="70"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="60"/>
       <c r="C107" s="27" t="s">
         <v>360</v>
@@ -10305,7 +10355,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="70"/>
+      <c r="A108" s="71"/>
       <c r="B108" s="60"/>
       <c r="C108" s="27" t="s">
         <v>361</v>
@@ -10336,7 +10386,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="70"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="60" t="s">
         <v>325</v>
       </c>
@@ -10357,7 +10407,7 @@
       <c r="K109" s="27"/>
     </row>
     <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="70"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="60"/>
       <c r="C110" s="27" t="s">
         <v>366</v>
@@ -10376,7 +10426,7 @@
       <c r="K110" s="27"/>
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="65" t="s">
         <v>419</v>
       </c>
       <c r="B111" s="60" t="s">
@@ -10403,7 +10453,7 @@
       <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="62"/>
+      <c r="A112" s="66"/>
       <c r="B112" s="60"/>
       <c r="C112" s="27" t="s">
         <v>368</v>
@@ -10426,7 +10476,7 @@
       <c r="K112" s="27"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="62"/>
+      <c r="A113" s="66"/>
       <c r="B113" s="60"/>
       <c r="C113" s="27" t="s">
         <v>369</v>
@@ -10449,7 +10499,7 @@
       <c r="K113" s="27"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="62"/>
+      <c r="A114" s="66"/>
       <c r="B114" s="60" t="s">
         <v>393</v>
       </c>
@@ -10470,7 +10520,7 @@
       <c r="K114" s="27"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="62"/>
+      <c r="A115" s="66"/>
       <c r="B115" s="60"/>
       <c r="C115" s="27" t="s">
         <v>371</v>
@@ -10489,7 +10539,7 @@
       <c r="K115" s="27"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="62"/>
+      <c r="A116" s="66"/>
       <c r="B116" s="60"/>
       <c r="C116" s="27" t="s">
         <v>372</v>
@@ -10508,7 +10558,7 @@
       <c r="K116" s="27"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="60"/>
       <c r="C117" s="27" t="s">
         <v>373</v>
@@ -10527,7 +10577,7 @@
       <c r="K117" s="27"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="62"/>
+      <c r="A118" s="66"/>
       <c r="B118" s="60"/>
       <c r="C118" s="27" t="s">
         <v>374</v>
@@ -10546,7 +10596,7 @@
       <c r="K118" s="27"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="62"/>
+      <c r="A119" s="66"/>
       <c r="B119" s="60"/>
       <c r="C119" s="27" t="s">
         <v>375</v>
@@ -10565,7 +10615,7 @@
       <c r="K119" s="27"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62"/>
+      <c r="A120" s="66"/>
       <c r="B120" s="60"/>
       <c r="C120" s="27" t="s">
         <v>376</v>
@@ -10584,7 +10634,7 @@
       <c r="K120" s="27"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
+      <c r="A121" s="66"/>
       <c r="B121" s="60"/>
       <c r="C121" s="27" t="s">
         <v>377</v>
@@ -10603,7 +10653,7 @@
       <c r="K121" s="27"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="62"/>
+      <c r="A122" s="66"/>
       <c r="B122" s="60"/>
       <c r="C122" s="27" t="s">
         <v>378</v>
@@ -10622,7 +10672,7 @@
       <c r="K122" s="27"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="60"/>
       <c r="C123" s="27" t="s">
         <v>379</v>
@@ -10641,7 +10691,7 @@
       <c r="K123" s="27"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="62"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="60"/>
       <c r="C124" s="27" t="s">
         <v>380</v>
@@ -10660,7 +10710,7 @@
       <c r="K124" s="27"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="62"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="60"/>
       <c r="C125" s="27" t="s">
         <v>381</v>
@@ -10679,7 +10729,7 @@
       <c r="K125" s="27"/>
     </row>
     <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="62"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="60"/>
       <c r="C126" s="27" t="s">
         <v>382</v>
@@ -10698,7 +10748,7 @@
       <c r="K126" s="27"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="62"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="60"/>
       <c r="C127" s="27" t="s">
         <v>383</v>
@@ -10717,7 +10767,7 @@
       <c r="K127" s="27"/>
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="62"/>
+      <c r="A128" s="66"/>
       <c r="B128" s="60"/>
       <c r="C128" s="27" t="s">
         <v>384</v>
@@ -10736,7 +10786,7 @@
       <c r="K128" s="27"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="62"/>
+      <c r="A129" s="66"/>
       <c r="B129" s="60"/>
       <c r="C129" s="27" t="s">
         <v>385</v>
@@ -10755,7 +10805,7 @@
       <c r="K129" s="27"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="62"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="60"/>
       <c r="C130" s="27" t="s">
         <v>386</v>
@@ -10774,7 +10824,7 @@
       <c r="K130" s="27"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="62"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="60"/>
       <c r="C131" s="27" t="s">
         <v>387</v>
@@ -10793,7 +10843,7 @@
       <c r="K131" s="27"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="62"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="60"/>
       <c r="C132" s="27" t="s">
         <v>388</v>
@@ -10812,7 +10862,7 @@
       <c r="K132" s="27"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="62"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="60"/>
       <c r="C133" s="27" t="s">
         <v>389</v>
@@ -10831,7 +10881,7 @@
       <c r="K133" s="27"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="62"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="60"/>
       <c r="C134" s="27" t="s">
         <v>390</v>
@@ -10850,7 +10900,7 @@
       <c r="K134" s="27"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="62"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="60"/>
       <c r="C135" s="27" t="s">
         <v>391</v>
@@ -10869,7 +10919,7 @@
       <c r="K135" s="27"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="62"/>
+      <c r="A136" s="66"/>
       <c r="B136" s="60" t="s">
         <v>415</v>
       </c>
@@ -10886,7 +10936,7 @@
       <c r="K136" s="27"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="62"/>
+      <c r="A137" s="66"/>
       <c r="B137" s="60"/>
       <c r="C137" s="27" t="s">
         <v>395</v>
@@ -10901,7 +10951,7 @@
       <c r="K137" s="27"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="62"/>
+      <c r="A138" s="66"/>
       <c r="B138" s="60"/>
       <c r="C138" s="27" t="s">
         <v>396</v>
@@ -10916,7 +10966,7 @@
       <c r="K138" s="27"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="62"/>
+      <c r="A139" s="66"/>
       <c r="B139" s="60"/>
       <c r="C139" s="27" t="s">
         <v>397</v>
@@ -10931,7 +10981,7 @@
       <c r="K139" s="27"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="62"/>
+      <c r="A140" s="66"/>
       <c r="B140" s="60"/>
       <c r="C140" s="27" t="s">
         <v>398</v>
@@ -10946,7 +10996,7 @@
       <c r="K140" s="27"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="62"/>
+      <c r="A141" s="66"/>
       <c r="B141" s="60"/>
       <c r="C141" s="27" t="s">
         <v>399</v>
@@ -10961,7 +11011,7 @@
       <c r="K141" s="27"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="62"/>
+      <c r="A142" s="66"/>
       <c r="B142" s="60"/>
       <c r="C142" s="27" t="s">
         <v>400</v>
@@ -10976,7 +11026,7 @@
       <c r="K142" s="27"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="62"/>
+      <c r="A143" s="66"/>
       <c r="B143" s="60"/>
       <c r="C143" s="27" t="s">
         <v>401</v>
@@ -10991,7 +11041,7 @@
       <c r="K143" s="27"/>
     </row>
     <row r="144" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="62"/>
+      <c r="A144" s="66"/>
       <c r="B144" s="60"/>
       <c r="C144" s="27" t="s">
         <v>402</v>
@@ -11006,7 +11056,7 @@
       <c r="K144" s="27"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="62"/>
+      <c r="A145" s="66"/>
       <c r="B145" s="60"/>
       <c r="C145" s="27" t="s">
         <v>403</v>
@@ -11021,7 +11071,7 @@
       <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="62"/>
+      <c r="A146" s="66"/>
       <c r="B146" s="60"/>
       <c r="C146" s="27" t="s">
         <v>404</v>
@@ -11036,7 +11086,7 @@
       <c r="K146" s="27"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="62"/>
+      <c r="A147" s="66"/>
       <c r="B147" s="60"/>
       <c r="C147" s="27" t="s">
         <v>405</v>
@@ -11051,7 +11101,7 @@
       <c r="K147" s="27"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="62"/>
+      <c r="A148" s="66"/>
       <c r="B148" s="60"/>
       <c r="C148" s="27" t="s">
         <v>406</v>
@@ -11066,7 +11116,7 @@
       <c r="K148" s="27"/>
     </row>
     <row r="149" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="62"/>
+      <c r="A149" s="66"/>
       <c r="B149" s="60"/>
       <c r="C149" s="27" t="s">
         <v>407</v>
@@ -11081,7 +11131,7 @@
       <c r="K149" s="27"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="62"/>
+      <c r="A150" s="66"/>
       <c r="B150" s="60"/>
       <c r="C150" s="27" t="s">
         <v>408</v>
@@ -11096,7 +11146,7 @@
       <c r="K150" s="27"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="62"/>
+      <c r="A151" s="66"/>
       <c r="B151" s="60"/>
       <c r="C151" s="27" t="s">
         <v>409</v>
@@ -11111,7 +11161,7 @@
       <c r="K151" s="27"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="62"/>
+      <c r="A152" s="66"/>
       <c r="B152" s="60"/>
       <c r="C152" s="27" t="s">
         <v>410</v>
@@ -11126,7 +11176,7 @@
       <c r="K152" s="27"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="62"/>
+      <c r="A153" s="66"/>
       <c r="B153" s="60"/>
       <c r="C153" s="27" t="s">
         <v>411</v>
@@ -11141,7 +11191,7 @@
       <c r="K153" s="27"/>
     </row>
     <row r="154" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="62"/>
+      <c r="A154" s="66"/>
       <c r="B154" s="60"/>
       <c r="C154" s="27" t="s">
         <v>412</v>
@@ -11156,7 +11206,7 @@
       <c r="K154" s="27"/>
     </row>
     <row r="155" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="62"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="60"/>
       <c r="C155" s="27" t="s">
         <v>413</v>
@@ -11171,7 +11221,7 @@
       <c r="K155" s="27"/>
     </row>
     <row r="156" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="62"/>
+      <c r="A156" s="66"/>
       <c r="B156" s="60"/>
       <c r="C156" s="27" t="s">
         <v>414</v>
@@ -11186,8 +11236,8 @@
       <c r="K156" s="27"/>
     </row>
     <row r="157" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="62"/>
-      <c r="B157" s="67" t="s">
+      <c r="A157" s="66"/>
+      <c r="B157" s="62" t="s">
         <v>418</v>
       </c>
       <c r="C157" s="27" t="s">
@@ -11203,8 +11253,8 @@
       <c r="K157" s="27"/>
     </row>
     <row r="158" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="69"/>
-      <c r="B158" s="68"/>
+      <c r="A158" s="67"/>
+      <c r="B158" s="64"/>
       <c r="C158" s="27" t="s">
         <v>417</v>
       </c>
@@ -11218,7 +11268,7 @@
       <c r="K158" s="27"/>
     </row>
     <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="63" t="s">
+      <c r="A159" s="61" t="s">
         <v>450</v>
       </c>
       <c r="B159" s="60" t="s">
@@ -11245,7 +11295,7 @@
       <c r="K159" s="27"/>
     </row>
     <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="63"/>
+      <c r="A160" s="61"/>
       <c r="B160" s="60"/>
       <c r="C160" s="27" t="s">
         <v>420</v>
@@ -11268,7 +11318,7 @@
       <c r="K160" s="27"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="63"/>
+      <c r="A161" s="61"/>
       <c r="B161" s="60"/>
       <c r="C161" s="27" t="s">
         <v>421</v>
@@ -11291,7 +11341,7 @@
       <c r="K161" s="27"/>
     </row>
     <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="63"/>
+      <c r="A162" s="61"/>
       <c r="B162" s="60" t="s">
         <v>447</v>
       </c>
@@ -11320,7 +11370,7 @@
       <c r="K162" s="27"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="63"/>
+      <c r="A163" s="61"/>
       <c r="B163" s="60"/>
       <c r="C163" s="27" t="s">
         <v>423</v>
@@ -11347,7 +11397,7 @@
       <c r="K163" s="27"/>
     </row>
     <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="63"/>
+      <c r="A164" s="61"/>
       <c r="B164" s="60"/>
       <c r="C164" s="27" t="s">
         <v>424</v>
@@ -11374,7 +11424,7 @@
       <c r="K164" s="27"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="63"/>
+      <c r="A165" s="61"/>
       <c r="B165" s="60"/>
       <c r="C165" s="27" t="s">
         <v>425</v>
@@ -11401,7 +11451,7 @@
       <c r="K165" s="27"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="63"/>
+      <c r="A166" s="61"/>
       <c r="B166" s="60"/>
       <c r="C166" s="27" t="s">
         <v>426</v>
@@ -11428,7 +11478,7 @@
       <c r="K166" s="27"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="63"/>
+      <c r="A167" s="61"/>
       <c r="B167" s="60"/>
       <c r="C167" s="27" t="s">
         <v>427</v>
@@ -11455,7 +11505,7 @@
       <c r="K167" s="27"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="63"/>
+      <c r="A168" s="61"/>
       <c r="B168" s="60"/>
       <c r="C168" s="27" t="s">
         <v>428</v>
@@ -11482,7 +11532,7 @@
       <c r="K168" s="27"/>
     </row>
     <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="63"/>
+      <c r="A169" s="61"/>
       <c r="B169" s="60"/>
       <c r="C169" s="27" t="s">
         <v>429</v>
@@ -11509,7 +11559,7 @@
       <c r="K169" s="27"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="63"/>
+      <c r="A170" s="61"/>
       <c r="B170" s="60"/>
       <c r="C170" s="27" t="s">
         <v>430</v>
@@ -11536,7 +11586,7 @@
       <c r="K170" s="27"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="63"/>
+      <c r="A171" s="61"/>
       <c r="B171" s="60"/>
       <c r="C171" s="27" t="s">
         <v>431</v>
@@ -11563,7 +11613,7 @@
       <c r="K171" s="27"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="63"/>
+      <c r="A172" s="61"/>
       <c r="B172" s="60"/>
       <c r="C172" s="27" t="s">
         <v>432</v>
@@ -11590,7 +11640,7 @@
       <c r="K172" s="27"/>
     </row>
     <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="63"/>
+      <c r="A173" s="61"/>
       <c r="B173" s="60"/>
       <c r="C173" s="27" t="s">
         <v>433</v>
@@ -11617,7 +11667,7 @@
       <c r="K173" s="27"/>
     </row>
     <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="63"/>
+      <c r="A174" s="61"/>
       <c r="B174" s="60"/>
       <c r="C174" s="27" t="s">
         <v>434</v>
@@ -11644,7 +11694,7 @@
       <c r="K174" s="27"/>
     </row>
     <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="63"/>
+      <c r="A175" s="61"/>
       <c r="B175" s="60"/>
       <c r="C175" s="27" t="s">
         <v>435</v>
@@ -11671,7 +11721,7 @@
       <c r="K175" s="27"/>
     </row>
     <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="63"/>
+      <c r="A176" s="61"/>
       <c r="B176" s="60" t="s">
         <v>448</v>
       </c>
@@ -11700,7 +11750,7 @@
       <c r="K176" s="27"/>
     </row>
     <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="63"/>
+      <c r="A177" s="61"/>
       <c r="B177" s="60"/>
       <c r="C177" s="27" t="s">
         <v>437</v>
@@ -11727,7 +11777,7 @@
       <c r="K177" s="27"/>
     </row>
     <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="63"/>
+      <c r="A178" s="61"/>
       <c r="B178" s="60"/>
       <c r="C178" s="27" t="s">
         <v>438</v>
@@ -11754,7 +11804,7 @@
       <c r="K178" s="27"/>
     </row>
     <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="63"/>
+      <c r="A179" s="61"/>
       <c r="B179" s="60"/>
       <c r="C179" s="27" t="s">
         <v>439</v>
@@ -11781,7 +11831,7 @@
       <c r="K179" s="27"/>
     </row>
     <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="63"/>
+      <c r="A180" s="61"/>
       <c r="B180" s="60"/>
       <c r="C180" s="27" t="s">
         <v>440</v>
@@ -11808,7 +11858,7 @@
       <c r="K180" s="27"/>
     </row>
     <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="63"/>
+      <c r="A181" s="61"/>
       <c r="B181" s="60"/>
       <c r="C181" s="27" t="s">
         <v>441</v>
@@ -11835,7 +11885,7 @@
       <c r="K181" s="27"/>
     </row>
     <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="63"/>
+      <c r="A182" s="61"/>
       <c r="B182" s="60"/>
       <c r="C182" s="27" t="s">
         <v>442</v>
@@ -11862,7 +11912,7 @@
       <c r="K182" s="27"/>
     </row>
     <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="63"/>
+      <c r="A183" s="61"/>
       <c r="B183" s="60"/>
       <c r="C183" s="27" t="s">
         <v>443</v>
@@ -11889,7 +11939,7 @@
       <c r="K183" s="27"/>
     </row>
     <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="63"/>
+      <c r="A184" s="61"/>
       <c r="B184" s="60"/>
       <c r="C184" s="27" t="s">
         <v>444</v>
@@ -11916,7 +11966,7 @@
       <c r="K184" s="27"/>
     </row>
     <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="63"/>
+      <c r="A185" s="61"/>
       <c r="B185" s="60"/>
       <c r="C185" s="27" t="s">
         <v>445</v>
@@ -11943,7 +11993,7 @@
       <c r="K185" s="27"/>
     </row>
     <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="63"/>
+      <c r="A186" s="61"/>
       <c r="B186" s="60" t="s">
         <v>418</v>
       </c>
@@ -11964,7 +12014,7 @@
       <c r="K186" s="27"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="63"/>
+      <c r="A187" s="61"/>
       <c r="B187" s="60"/>
       <c r="C187" s="27" t="s">
         <v>449</v>
@@ -11983,7 +12033,7 @@
       <c r="K187" s="27"/>
     </row>
     <row r="188" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="64" t="s">
+      <c r="A188" s="68" t="s">
         <v>499</v>
       </c>
       <c r="B188" s="60" t="s">
@@ -12002,7 +12052,7 @@
       <c r="K188" s="27"/>
     </row>
     <row r="189" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="65"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="60"/>
       <c r="C189" s="27" t="s">
         <v>451</v>
@@ -12017,7 +12067,7 @@
       <c r="K189" s="27"/>
     </row>
     <row r="190" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="65"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="60"/>
       <c r="C190" s="27" t="s">
         <v>452</v>
@@ -12032,7 +12082,7 @@
       <c r="K190" s="27"/>
     </row>
     <row r="191" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="65"/>
+      <c r="A191" s="69"/>
       <c r="B191" s="60" t="s">
         <v>492</v>
       </c>
@@ -12049,7 +12099,7 @@
       <c r="K191" s="27"/>
     </row>
     <row r="192" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="65"/>
+      <c r="A192" s="69"/>
       <c r="B192" s="60"/>
       <c r="C192" s="27" t="s">
         <v>454</v>
@@ -12064,7 +12114,7 @@
       <c r="K192" s="27"/>
     </row>
     <row r="193" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="65"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="60"/>
       <c r="C193" s="27" t="s">
         <v>455</v>
@@ -12079,7 +12129,7 @@
       <c r="K193" s="27"/>
     </row>
     <row r="194" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="65"/>
+      <c r="A194" s="69"/>
       <c r="B194" s="60"/>
       <c r="C194" s="27" t="s">
         <v>456</v>
@@ -12094,7 +12144,7 @@
       <c r="K194" s="27"/>
     </row>
     <row r="195" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="65"/>
+      <c r="A195" s="69"/>
       <c r="B195" s="60"/>
       <c r="C195" s="27" t="s">
         <v>457</v>
@@ -12109,7 +12159,7 @@
       <c r="K195" s="27"/>
     </row>
     <row r="196" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="65"/>
+      <c r="A196" s="69"/>
       <c r="B196" s="60"/>
       <c r="C196" s="27" t="s">
         <v>458</v>
@@ -12124,7 +12174,7 @@
       <c r="K196" s="27"/>
     </row>
     <row r="197" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="65"/>
+      <c r="A197" s="69"/>
       <c r="B197" s="60"/>
       <c r="C197" s="27" t="s">
         <v>459</v>
@@ -12139,7 +12189,7 @@
       <c r="K197" s="27"/>
     </row>
     <row r="198" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="65"/>
+      <c r="A198" s="69"/>
       <c r="B198" s="60"/>
       <c r="C198" s="27" t="s">
         <v>460</v>
@@ -12154,7 +12204,7 @@
       <c r="K198" s="27"/>
     </row>
     <row r="199" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="65"/>
+      <c r="A199" s="69"/>
       <c r="B199" s="60"/>
       <c r="C199" s="27" t="s">
         <v>461</v>
@@ -12169,7 +12219,7 @@
       <c r="K199" s="27"/>
     </row>
     <row r="200" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="65"/>
+      <c r="A200" s="69"/>
       <c r="B200" s="60"/>
       <c r="C200" s="27" t="s">
         <v>462</v>
@@ -12184,7 +12234,7 @@
       <c r="K200" s="27"/>
     </row>
     <row r="201" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="65"/>
+      <c r="A201" s="69"/>
       <c r="B201" s="60"/>
       <c r="C201" s="27" t="s">
         <v>463</v>
@@ -12199,7 +12249,7 @@
       <c r="K201" s="27"/>
     </row>
     <row r="202" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="65"/>
+      <c r="A202" s="69"/>
       <c r="B202" s="60"/>
       <c r="C202" s="27" t="s">
         <v>464</v>
@@ -12214,7 +12264,7 @@
       <c r="K202" s="27"/>
     </row>
     <row r="203" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="65"/>
+      <c r="A203" s="69"/>
       <c r="B203" s="60" t="s">
         <v>493</v>
       </c>
@@ -12231,7 +12281,7 @@
       <c r="K203" s="27"/>
     </row>
     <row r="204" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="65"/>
+      <c r="A204" s="69"/>
       <c r="B204" s="60"/>
       <c r="C204" s="27" t="s">
         <v>466</v>
@@ -12246,7 +12296,7 @@
       <c r="K204" s="27"/>
     </row>
     <row r="205" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="65"/>
+      <c r="A205" s="69"/>
       <c r="B205" s="60"/>
       <c r="C205" s="27" t="s">
         <v>467</v>
@@ -12261,7 +12311,7 @@
       <c r="K205" s="27"/>
     </row>
     <row r="206" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="65"/>
+      <c r="A206" s="69"/>
       <c r="B206" s="60"/>
       <c r="C206" s="27" t="s">
         <v>468</v>
@@ -12276,7 +12326,7 @@
       <c r="K206" s="27"/>
     </row>
     <row r="207" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="65"/>
+      <c r="A207" s="69"/>
       <c r="B207" s="60"/>
       <c r="C207" s="27" t="s">
         <v>469</v>
@@ -12291,7 +12341,7 @@
       <c r="K207" s="27"/>
     </row>
     <row r="208" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="65"/>
+      <c r="A208" s="69"/>
       <c r="B208" s="60"/>
       <c r="C208" s="27" t="s">
         <v>470</v>
@@ -12306,7 +12356,7 @@
       <c r="K208" s="27"/>
     </row>
     <row r="209" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="65"/>
+      <c r="A209" s="69"/>
       <c r="B209" s="60"/>
       <c r="C209" s="27" t="s">
         <v>471</v>
@@ -12321,7 +12371,7 @@
       <c r="K209" s="27"/>
     </row>
     <row r="210" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="65"/>
+      <c r="A210" s="69"/>
       <c r="B210" s="60"/>
       <c r="C210" s="27" t="s">
         <v>472</v>
@@ -12336,7 +12386,7 @@
       <c r="K210" s="27"/>
     </row>
     <row r="211" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="65"/>
+      <c r="A211" s="69"/>
       <c r="B211" s="60"/>
       <c r="C211" s="27" t="s">
         <v>473</v>
@@ -12351,7 +12401,7 @@
       <c r="K211" s="27"/>
     </row>
     <row r="212" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="65"/>
+      <c r="A212" s="69"/>
       <c r="B212" s="60"/>
       <c r="C212" s="27" t="s">
         <v>474</v>
@@ -12366,7 +12416,7 @@
       <c r="K212" s="27"/>
     </row>
     <row r="213" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="65"/>
+      <c r="A213" s="69"/>
       <c r="B213" s="60"/>
       <c r="C213" s="27" t="s">
         <v>475</v>
@@ -12381,7 +12431,7 @@
       <c r="K213" s="27"/>
     </row>
     <row r="214" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="65"/>
+      <c r="A214" s="69"/>
       <c r="B214" s="60"/>
       <c r="C214" s="27" t="s">
         <v>476</v>
@@ -12396,7 +12446,7 @@
       <c r="K214" s="27"/>
     </row>
     <row r="215" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="65"/>
+      <c r="A215" s="69"/>
       <c r="B215" s="60"/>
       <c r="C215" s="27" t="s">
         <v>477</v>
@@ -12411,7 +12461,7 @@
       <c r="K215" s="27"/>
     </row>
     <row r="216" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="65"/>
+      <c r="A216" s="69"/>
       <c r="B216" s="60"/>
       <c r="C216" s="27" t="s">
         <v>478</v>
@@ -12426,7 +12476,7 @@
       <c r="K216" s="27"/>
     </row>
     <row r="217" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="65"/>
+      <c r="A217" s="69"/>
       <c r="B217" s="60"/>
       <c r="C217" s="27" t="s">
         <v>479</v>
@@ -12441,7 +12491,7 @@
       <c r="K217" s="27"/>
     </row>
     <row r="218" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="65"/>
+      <c r="A218" s="69"/>
       <c r="B218" s="60"/>
       <c r="C218" s="27" t="s">
         <v>480</v>
@@ -12456,7 +12506,7 @@
       <c r="K218" s="27"/>
     </row>
     <row r="219" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="65"/>
+      <c r="A219" s="69"/>
       <c r="B219" s="60"/>
       <c r="C219" s="27" t="s">
         <v>481</v>
@@ -12471,7 +12521,7 @@
       <c r="K219" s="27"/>
     </row>
     <row r="220" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="65"/>
+      <c r="A220" s="69"/>
       <c r="B220" s="60"/>
       <c r="C220" s="27" t="s">
         <v>482</v>
@@ -12486,7 +12536,7 @@
       <c r="K220" s="27"/>
     </row>
     <row r="221" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="65"/>
+      <c r="A221" s="69"/>
       <c r="B221" s="60"/>
       <c r="C221" s="27" t="s">
         <v>483</v>
@@ -12501,7 +12551,7 @@
       <c r="K221" s="27"/>
     </row>
     <row r="222" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="65"/>
+      <c r="A222" s="69"/>
       <c r="B222" s="60"/>
       <c r="C222" s="27" t="s">
         <v>484</v>
@@ -12516,7 +12566,7 @@
       <c r="K222" s="27"/>
     </row>
     <row r="223" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="65"/>
+      <c r="A223" s="69"/>
       <c r="B223" s="60"/>
       <c r="C223" s="27" t="s">
         <v>485</v>
@@ -12531,7 +12581,7 @@
       <c r="K223" s="27"/>
     </row>
     <row r="224" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="65"/>
+      <c r="A224" s="69"/>
       <c r="B224" s="60"/>
       <c r="C224" s="27" t="s">
         <v>486</v>
@@ -12546,7 +12596,7 @@
       <c r="K224" s="27"/>
     </row>
     <row r="225" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="65"/>
+      <c r="A225" s="69"/>
       <c r="B225" s="60"/>
       <c r="C225" s="27" t="s">
         <v>487</v>
@@ -12561,7 +12611,7 @@
       <c r="K225" s="27"/>
     </row>
     <row r="226" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="65"/>
+      <c r="A226" s="69"/>
       <c r="B226" s="60"/>
       <c r="C226" s="27" t="s">
         <v>488</v>
@@ -12576,7 +12626,7 @@
       <c r="K226" s="27"/>
     </row>
     <row r="227" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="65"/>
+      <c r="A227" s="69"/>
       <c r="B227" s="60"/>
       <c r="C227" s="27" t="s">
         <v>489</v>
@@ -12591,7 +12641,7 @@
       <c r="K227" s="27"/>
     </row>
     <row r="228" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="65"/>
+      <c r="A228" s="69"/>
       <c r="B228" s="60"/>
       <c r="C228" s="27" t="s">
         <v>490</v>
@@ -12606,7 +12656,7 @@
       <c r="K228" s="27"/>
     </row>
     <row r="229" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="65"/>
+      <c r="A229" s="69"/>
       <c r="B229" s="60"/>
       <c r="C229" s="27" t="s">
         <v>491</v>
@@ -12621,7 +12671,7 @@
       <c r="K229" s="27"/>
     </row>
     <row r="230" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="65"/>
+      <c r="A230" s="69"/>
       <c r="B230" s="60" t="s">
         <v>498</v>
       </c>
@@ -12642,7 +12692,7 @@
       <c r="K230" s="27"/>
     </row>
     <row r="231" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="66"/>
+      <c r="A231" s="70"/>
       <c r="B231" s="60"/>
       <c r="C231" s="27" t="s">
         <v>497</v>
@@ -12661,7 +12711,7 @@
       <c r="K231" s="27"/>
     </row>
     <row r="232" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="61" t="s">
+      <c r="A232" s="65" t="s">
         <v>551</v>
       </c>
       <c r="B232" s="60" t="s">
@@ -12688,7 +12738,7 @@
       <c r="K232" s="27"/>
     </row>
     <row r="233" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="62"/>
+      <c r="A233" s="66"/>
       <c r="B233" s="60"/>
       <c r="C233" s="27" t="s">
         <v>500</v>
@@ -12711,7 +12761,7 @@
       <c r="K233" s="27"/>
     </row>
     <row r="234" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="62"/>
+      <c r="A234" s="66"/>
       <c r="B234" s="60"/>
       <c r="C234" s="27" t="s">
         <v>501</v>
@@ -12734,7 +12784,7 @@
       <c r="K234" s="27"/>
     </row>
     <row r="235" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="62"/>
+      <c r="A235" s="66"/>
       <c r="B235" s="60" t="s">
         <v>538</v>
       </c>
@@ -12759,7 +12809,7 @@
       <c r="K235" s="27"/>
     </row>
     <row r="236" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="62"/>
+      <c r="A236" s="66"/>
       <c r="B236" s="60"/>
       <c r="C236" s="27" t="s">
         <v>503</v>
@@ -12782,7 +12832,7 @@
       <c r="K236" s="27"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="62"/>
+      <c r="A237" s="66"/>
       <c r="B237" s="60"/>
       <c r="C237" s="27" t="s">
         <v>504</v>
@@ -12805,7 +12855,7 @@
       <c r="K237" s="27"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="62"/>
+      <c r="A238" s="66"/>
       <c r="B238" s="60"/>
       <c r="C238" s="27" t="s">
         <v>505</v>
@@ -12828,7 +12878,7 @@
       <c r="K238" s="27"/>
     </row>
     <row r="239" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="62"/>
+      <c r="A239" s="66"/>
       <c r="B239" s="60"/>
       <c r="C239" s="27" t="s">
         <v>506</v>
@@ -12851,7 +12901,7 @@
       <c r="K239" s="27"/>
     </row>
     <row r="240" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="62"/>
+      <c r="A240" s="66"/>
       <c r="B240" s="60"/>
       <c r="C240" s="27" t="s">
         <v>507</v>
@@ -12874,7 +12924,7 @@
       <c r="K240" s="27"/>
     </row>
     <row r="241" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="62"/>
+      <c r="A241" s="66"/>
       <c r="B241" s="60"/>
       <c r="C241" s="27" t="s">
         <v>508</v>
@@ -12897,7 +12947,7 @@
       <c r="K241" s="27"/>
     </row>
     <row r="242" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="62"/>
+      <c r="A242" s="66"/>
       <c r="B242" s="60"/>
       <c r="C242" s="27" t="s">
         <v>509</v>
@@ -12920,7 +12970,7 @@
       <c r="K242" s="27"/>
     </row>
     <row r="243" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="62"/>
+      <c r="A243" s="66"/>
       <c r="B243" s="60"/>
       <c r="C243" s="27" t="s">
         <v>510</v>
@@ -12943,7 +12993,7 @@
       <c r="K243" s="27"/>
     </row>
     <row r="244" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="62"/>
+      <c r="A244" s="66"/>
       <c r="B244" s="60"/>
       <c r="C244" s="27" t="s">
         <v>511</v>
@@ -12966,7 +13016,7 @@
       <c r="K244" s="27"/>
     </row>
     <row r="245" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="62"/>
+      <c r="A245" s="66"/>
       <c r="B245" s="60"/>
       <c r="C245" s="27" t="s">
         <v>512</v>
@@ -12989,7 +13039,7 @@
       <c r="K245" s="27"/>
     </row>
     <row r="246" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="62"/>
+      <c r="A246" s="66"/>
       <c r="B246" s="60"/>
       <c r="C246" s="27" t="s">
         <v>513</v>
@@ -13012,7 +13062,7 @@
       <c r="K246" s="27"/>
     </row>
     <row r="247" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="62"/>
+      <c r="A247" s="66"/>
       <c r="B247" s="60"/>
       <c r="C247" s="27" t="s">
         <v>514</v>
@@ -13035,7 +13085,7 @@
       <c r="K247" s="27"/>
     </row>
     <row r="248" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="62"/>
+      <c r="A248" s="66"/>
       <c r="B248" s="60"/>
       <c r="C248" s="27" t="s">
         <v>515</v>
@@ -13058,7 +13108,7 @@
       <c r="K248" s="27"/>
     </row>
     <row r="249" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="62"/>
+      <c r="A249" s="66"/>
       <c r="B249" s="60"/>
       <c r="C249" s="27" t="s">
         <v>516</v>
@@ -13081,7 +13131,7 @@
       <c r="K249" s="27"/>
     </row>
     <row r="250" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="62"/>
+      <c r="A250" s="66"/>
       <c r="B250" s="60" t="s">
         <v>539</v>
       </c>
@@ -13106,7 +13156,7 @@
       <c r="K250" s="27"/>
     </row>
     <row r="251" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="62"/>
+      <c r="A251" s="66"/>
       <c r="B251" s="60"/>
       <c r="C251" s="27" t="s">
         <v>518</v>
@@ -13129,7 +13179,7 @@
       <c r="K251" s="27"/>
     </row>
     <row r="252" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="62"/>
+      <c r="A252" s="66"/>
       <c r="B252" s="60"/>
       <c r="C252" s="27" t="s">
         <v>519</v>
@@ -13152,7 +13202,7 @@
       <c r="K252" s="27"/>
     </row>
     <row r="253" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="62"/>
+      <c r="A253" s="66"/>
       <c r="B253" s="60"/>
       <c r="C253" s="27" t="s">
         <v>520</v>
@@ -13175,7 +13225,7 @@
       <c r="K253" s="27"/>
     </row>
     <row r="254" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="62"/>
+      <c r="A254" s="66"/>
       <c r="B254" s="60"/>
       <c r="C254" s="27" t="s">
         <v>521</v>
@@ -13198,7 +13248,7 @@
       <c r="K254" s="27"/>
     </row>
     <row r="255" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="62"/>
+      <c r="A255" s="66"/>
       <c r="B255" s="60"/>
       <c r="C255" s="27" t="s">
         <v>522</v>
@@ -13221,7 +13271,7 @@
       <c r="K255" s="27"/>
     </row>
     <row r="256" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="62"/>
+      <c r="A256" s="66"/>
       <c r="B256" s="60"/>
       <c r="C256" s="27" t="s">
         <v>523</v>
@@ -13244,7 +13294,7 @@
       <c r="K256" s="27"/>
     </row>
     <row r="257" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="62"/>
+      <c r="A257" s="66"/>
       <c r="B257" s="60"/>
       <c r="C257" s="27" t="s">
         <v>524</v>
@@ -13267,7 +13317,7 @@
       <c r="K257" s="27"/>
     </row>
     <row r="258" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="62"/>
+      <c r="A258" s="66"/>
       <c r="B258" s="60"/>
       <c r="C258" s="27" t="s">
         <v>525</v>
@@ -13290,7 +13340,7 @@
       <c r="K258" s="27"/>
     </row>
     <row r="259" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="62"/>
+      <c r="A259" s="66"/>
       <c r="B259" s="60"/>
       <c r="C259" s="27" t="s">
         <v>526</v>
@@ -13313,7 +13363,7 @@
       <c r="K259" s="27"/>
     </row>
     <row r="260" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="62"/>
+      <c r="A260" s="66"/>
       <c r="B260" s="60"/>
       <c r="C260" s="27" t="s">
         <v>527</v>
@@ -13336,7 +13386,7 @@
       <c r="K260" s="27"/>
     </row>
     <row r="261" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="62"/>
+      <c r="A261" s="66"/>
       <c r="B261" s="60"/>
       <c r="C261" s="27" t="s">
         <v>528</v>
@@ -13359,7 +13409,7 @@
       <c r="K261" s="27"/>
     </row>
     <row r="262" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="62"/>
+      <c r="A262" s="66"/>
       <c r="B262" s="60"/>
       <c r="C262" s="27" t="s">
         <v>529</v>
@@ -13382,7 +13432,7 @@
       <c r="K262" s="27"/>
     </row>
     <row r="263" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="62"/>
+      <c r="A263" s="66"/>
       <c r="B263" s="60"/>
       <c r="C263" s="27" t="s">
         <v>530</v>
@@ -13405,7 +13455,7 @@
       <c r="K263" s="27"/>
     </row>
     <row r="264" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="62"/>
+      <c r="A264" s="66"/>
       <c r="B264" s="60"/>
       <c r="C264" s="27" t="s">
         <v>531</v>
@@ -13428,7 +13478,7 @@
       <c r="K264" s="27"/>
     </row>
     <row r="265" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="62"/>
+      <c r="A265" s="66"/>
       <c r="B265" s="60"/>
       <c r="C265" s="27" t="s">
         <v>532</v>
@@ -13451,7 +13501,7 @@
       <c r="K265" s="27"/>
     </row>
     <row r="266" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="62"/>
+      <c r="A266" s="66"/>
       <c r="B266" s="60"/>
       <c r="C266" s="27" t="s">
         <v>533</v>
@@ -13474,7 +13524,7 @@
       <c r="K266" s="27"/>
     </row>
     <row r="267" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="62"/>
+      <c r="A267" s="66"/>
       <c r="B267" s="60"/>
       <c r="C267" s="27" t="s">
         <v>534</v>
@@ -13497,7 +13547,7 @@
       <c r="K267" s="27"/>
     </row>
     <row r="268" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="62"/>
+      <c r="A268" s="66"/>
       <c r="B268" s="60"/>
       <c r="C268" s="27" t="s">
         <v>535</v>
@@ -13520,7 +13570,7 @@
       <c r="K268" s="27"/>
     </row>
     <row r="269" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="62"/>
+      <c r="A269" s="66"/>
       <c r="B269" s="60"/>
       <c r="C269" s="27" t="s">
         <v>536</v>
@@ -13543,7 +13593,7 @@
       <c r="K269" s="27"/>
     </row>
     <row r="270" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="62"/>
+      <c r="A270" s="66"/>
       <c r="B270" s="60"/>
       <c r="C270" s="27" t="s">
         <v>537</v>
@@ -13566,7 +13616,7 @@
       <c r="K270" s="27"/>
     </row>
     <row r="271" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="62"/>
+      <c r="A271" s="66"/>
       <c r="B271" s="60" t="s">
         <v>550</v>
       </c>
@@ -13587,7 +13637,7 @@
       <c r="K271" s="27"/>
     </row>
     <row r="272" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="62"/>
+      <c r="A272" s="66"/>
       <c r="B272" s="60"/>
       <c r="C272" s="27" t="s">
         <v>541</v>
@@ -13606,7 +13656,7 @@
       <c r="K272" s="27"/>
     </row>
     <row r="273" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="62"/>
+      <c r="A273" s="66"/>
       <c r="B273" s="60"/>
       <c r="C273" s="27" t="s">
         <v>542</v>
@@ -13625,7 +13675,7 @@
       <c r="K273" s="27"/>
     </row>
     <row r="274" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="62"/>
+      <c r="A274" s="66"/>
       <c r="B274" s="60"/>
       <c r="C274" s="27" t="s">
         <v>543</v>
@@ -13644,7 +13694,7 @@
       <c r="K274" s="27"/>
     </row>
     <row r="275" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="62"/>
+      <c r="A275" s="66"/>
       <c r="B275" s="60"/>
       <c r="C275" s="27" t="s">
         <v>544</v>
@@ -13663,7 +13713,7 @@
       <c r="K275" s="27"/>
     </row>
     <row r="276" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="62"/>
+      <c r="A276" s="66"/>
       <c r="B276" s="60"/>
       <c r="C276" s="27" t="s">
         <v>545</v>
@@ -13692,27 +13742,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B62:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A39:A76"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B24"/>
-    <mergeCell ref="B25:B36"/>
-    <mergeCell ref="A111:A158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B175"/>
-    <mergeCell ref="B176:B185"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B135"/>
-    <mergeCell ref="B136:B156"/>
-    <mergeCell ref="A232:A276"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="A159:A187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B191:B202"/>
-    <mergeCell ref="B203:B229"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="A188:A231"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B232:B234"/>
     <mergeCell ref="B235:B249"/>
@@ -13729,6 +13758,27 @@
     <mergeCell ref="A5:A38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B61"/>
+    <mergeCell ref="A232:A276"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="A159:A187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B191:B202"/>
+    <mergeCell ref="B203:B229"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="A188:A231"/>
+    <mergeCell ref="A111:A158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B175"/>
+    <mergeCell ref="B176:B185"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B135"/>
+    <mergeCell ref="B136:B156"/>
+    <mergeCell ref="B62:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A39:A76"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="B25:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13739,7 +13789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
